--- a/DSMatHang.xlsx
+++ b/DSMatHang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Mã phòng</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Bia Sapporo lon 330ml</t>
   </si>
   <si>
-    <t>Hết hàng</t>
-  </si>
-  <si>
     <t>MH008</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
   </si>
   <si>
     <t>Nước ngọt Pepsi</t>
-  </si>
-  <si>
-    <t>MH011</t>
-  </si>
-  <si>
-    <t>Nhi Nhi</t>
   </si>
 </sst>
 </file>
@@ -140,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -252,18 +243,18 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>39999.0</v>
+        <v>19000.0</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>10000.0</v>
@@ -274,44 +265,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="n">
-        <v>23333.0</v>
+        <v>12000.0</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="n">
-        <v>12222.0</v>
+        <v>12000.0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
